--- a/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Gp.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L7-介接外部系統/LoanIfrs9Gp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L7-介接外部系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ACE68A-6215-4741-82A2-3D850627A92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C9AAD3-3CD3-4338-979C-C3CAC0ECD712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -380,12 +380,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1=企業戶
-2=個人戶
-依現行代碼，唯企業戶與個人戶之分類需參考信用評等模型。自然人採用企金自然人評等模型者，應歸類為企業戶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Stored Procedure Name</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -1350,11 +1344,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>1=正常
-2=催收</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>抓取最近一次的轉催收日期
 YYYYMMDD 例：20100108</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1380,71 +1369,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>是 2=否
-為IAS39減損客觀條件5</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>是 2=否
-為IAS39減損客觀條件3</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>是 2=否
-為IAS39減損客觀條件4</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>是  2=否
-為IAS39減損客觀條件1
-若「逾期繳款天數」達90天（含）以上，本欄位應註記為1</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>PdFlagToD</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1468,23 +1392,6 @@
   <si>
     <t>CustKind</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>是 2=否
-為IAS39減損客觀條件2
-若「逾期繳款天數」達90天（含）以上，本欄位應註記為1</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>企業戶/個人戶</t>
@@ -1754,11 +1661,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>抓取月底日資料，並以天數表示，例:090
-(2020/12資料有4位)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ApplNo</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1780,6 +1682,97 @@
   <si>
     <t>Usp_L7_LoanIfrs9Gp_Upd</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:企業戶
+2:個人戶
+依現行代碼，唯企業戶與個人戶之分類需參考信用評等模型。自然人採用企金自然人評等模型者，應歸類為企業戶</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:正常
+2:催收</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>是
+2:否
+為IAS39減損客觀條件1
+若「逾期繳款天數」達90天（含）以上，本欄位應註記為1</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓取月底日資料，並以天數表示，例：090
+(2020/12資料有4位)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:是
+2:否
+為IAS39減損客觀條件2
+若「逾期繳款天數」達90天（含）以上，本欄位應註記為1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>是
+2:否
+為IAS39減損客觀條件3</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>是
+2:否
+為IAS39減損客觀條件4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>是
+2:否
+為IAS39減損客觀條件5</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2221,7 +2214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2437,6 +2430,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2785,8 +2781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2807,10 +2803,10 @@
       </c>
       <c r="B1" s="69"/>
       <c r="C1" s="24" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -2916,7 +2912,7 @@
         <v>9</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2960,7 +2956,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="62"/>
       <c r="H10" s="65" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2982,7 +2978,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="62"/>
       <c r="H11" s="65" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -3004,7 +3000,7 @@
       <c r="F12" s="13"/>
       <c r="G12" s="62"/>
       <c r="H12" s="65" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -3012,10 +3008,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>32</v>
@@ -3026,7 +3022,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="62"/>
       <c r="H13" s="65" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -3048,7 +3044,7 @@
       <c r="F14" s="13"/>
       <c r="G14" s="62"/>
       <c r="H14" s="65" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="81" x14ac:dyDescent="0.3">
@@ -3056,10 +3052,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>32</v>
@@ -3069,10 +3065,10 @@
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="62" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="H15" s="65" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.3">
@@ -3083,7 +3079,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>32</v>
@@ -3093,10 +3089,10 @@
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="62" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="H16" s="65" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -3104,10 +3100,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>38</v>
@@ -3117,10 +3113,10 @@
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="62" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H17" s="66" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -3128,10 +3124,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>33</v>
@@ -3141,10 +3137,10 @@
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="62" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H18" s="65" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -3152,10 +3148,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>33</v>
@@ -3165,10 +3161,10 @@
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="62" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H19" s="65" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -3176,10 +3172,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>33</v>
@@ -3189,10 +3185,10 @@
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="62" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H20" s="65" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -3200,10 +3196,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>33</v>
@@ -3213,10 +3209,10 @@
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H21" s="65" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -3224,10 +3220,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>38</v>
@@ -3237,21 +3233,21 @@
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="62" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H22" s="65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>15</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>38</v>
@@ -3261,21 +3257,21 @@
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="63" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="H23" s="67" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="75" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>16</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>38</v>
@@ -3284,11 +3280,11 @@
         <v>1</v>
       </c>
       <c r="F24" s="13"/>
-      <c r="G24" s="63" t="s">
-        <v>114</v>
+      <c r="G24" s="70" t="s">
+        <v>156</v>
       </c>
       <c r="H24" s="67" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="88.2" x14ac:dyDescent="0.3">
@@ -3296,10 +3292,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C25" s="60" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>38</v>
@@ -3309,10 +3305,10 @@
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="62" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="H25" s="67" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="88.2" x14ac:dyDescent="0.3">
@@ -3320,10 +3316,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>38</v>
@@ -3333,10 +3329,10 @@
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="62" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="H26" s="67" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.3">
@@ -3344,10 +3340,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C27" s="60" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>38</v>
@@ -3357,10 +3353,10 @@
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="62" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="H27" s="65" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -3368,10 +3364,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C28" s="60" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>33</v>
@@ -3382,7 +3378,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="2"/>
       <c r="H28" s="65" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -3724,7 +3720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -3738,24 +3734,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="26" t="s">
         <v>55</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3780,22 +3776,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -4235,26 +4231,26 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21.6" x14ac:dyDescent="0.45">
       <c r="A1" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="33" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="32"/>
       <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="36"/>
       <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="19"/>
     </row>
@@ -4263,13 +4259,13 @@
         <v>45</v>
       </c>
       <c r="B5" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="D5" s="41" t="s">
         <v>63</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>64</v>
       </c>
       <c r="E5" s="42" t="s">
         <v>46</v>
@@ -4280,7 +4276,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="45"/>
       <c r="D6" s="46"/>
@@ -4302,7 +4298,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="45"/>
       <c r="D8" s="46"/>
@@ -4313,7 +4309,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="45"/>
       <c r="D9" s="46"/>
@@ -4335,13 +4331,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="D11" s="51" t="s">
         <v>69</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>70</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>51</v>
@@ -4352,13 +4348,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="52" t="s">
-        <v>72</v>
-      </c>
       <c r="D12" s="51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="47"/>
     </row>
@@ -4370,7 +4366,7 @@
         <v>50</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="46" t="s">
         <v>49</v>
@@ -4382,16 +4378,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="D14" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="54" t="s">
         <v>75</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="54" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
@@ -4399,13 +4395,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="47"/>
     </row>
@@ -4414,16 +4410,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="54" t="s">
         <v>75</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="54" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
@@ -4431,10 +4427,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="51"/>
       <c r="E17" s="54"/>
@@ -4442,26 +4438,26 @@
     <row r="18" spans="1:5" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
       <c r="B18" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="D18" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="58"/>
     </row>
     <row r="19" spans="1:5" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
       <c r="B19" s="55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="58"/>
     </row>
@@ -4470,13 +4466,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="45" t="s">
-        <v>84</v>
-      </c>
       <c r="D20" s="46" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E20" s="47"/>
     </row>
@@ -4485,16 +4481,16 @@
         <v>14</v>
       </c>
       <c r="B21" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="D21" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="59" t="s">
         <v>86</v>
-      </c>
-      <c r="D21" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="59" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
@@ -4502,16 +4498,16 @@
         <v>15</v>
       </c>
       <c r="B22" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="59" t="s">
         <v>88</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="59" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
@@ -4519,16 +4515,16 @@
         <v>16</v>
       </c>
       <c r="B23" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="D23" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="59" t="s">
         <v>91</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="59" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
@@ -4536,16 +4532,16 @@
         <v>17</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
@@ -4553,16 +4549,16 @@
         <v>18</v>
       </c>
       <c r="B25" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="D25" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="59" t="s">
         <v>95</v>
-      </c>
-      <c r="D25" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="59" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
@@ -4570,13 +4566,13 @@
         <v>19</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="47"/>
     </row>
